--- a/public/uploads/excel/5af04bf4be2d4570b2a25735_kit.xlsx
+++ b/public/uploads/excel/5af04bf4be2d4570b2a25735_kit.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Sr. No.</t>
   </si>
   <si>
-    <t>emp_Id</t>
-  </si>
-  <si>
-    <t>emp_Name</t>
+    <t>Employee_Id</t>
+  </si>
+  <si>
+    <t>Employee_Name</t>
   </si>
   <si>
     <t>Designation</t>
@@ -40,52 +40,25 @@
     <t>Kit_Name</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>Deepak kumar DL</t>
+    <t>Anmol123</t>
+  </si>
+  <si>
+    <t>Anmol</t>
   </si>
   <si>
     <t>co-ordinator</t>
   </si>
   <si>
-    <t>SMDL</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>John DL</t>
-  </si>
-  <si>
-    <t>HWDL</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>Site engineer 1</t>
-  </si>
-  <si>
-    <t>site-engineer</t>
-  </si>
-  <si>
-    <t>HWMP</t>
-  </si>
-  <si>
-    <t>Madhya pradesh</t>
-  </si>
-  <si>
-    <t>Mobile</t>
+    <t>HWRJ</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Rajsthan</t>
+  </si>
+  <si>
+    <t>HP Laptop</t>
   </si>
 </sst>
 </file>
@@ -462,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -532,64 +505,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>1000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>2000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
